--- a/edit-tracking.xlsx
+++ b/edit-tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/rmummah_usgs_gov/Documents/Documents/GitHub/BirdSDM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{48011E1D-CECF-4842-8541-B45FFF3C154A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F872CEE5-80E5-4636-80D9-435C28A727E9}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{48011E1D-CECF-4842-8541-B45FFF3C154A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84388672-7692-42DE-965C-7E2E9745282B}"/>
   <bookViews>
-    <workbookView xWindow="-240" yWindow="-240" windowWidth="38880" windowHeight="21480" xr2:uid="{AB80B182-C3D9-437D-A896-052C0DB30904}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{AB80B182-C3D9-437D-A896-052C0DB30904}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="9">
   <si>
     <t>CAWA</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Adapted for HPC</t>
+  </si>
+  <si>
+    <t>RM</t>
   </si>
 </sst>
 </file>
@@ -420,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090EB2AA-2EDB-41FA-82AD-3B01D26A50CA}">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,6 +458,9 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
       <c r="F2">
         <v>3110120</v>
       </c>
@@ -466,6 +472,9 @@
       <c r="B3">
         <v>2</v>
       </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -474,6 +483,9 @@
       <c r="B4">
         <v>3</v>
       </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -482,6 +494,9 @@
       <c r="B5">
         <v>4</v>
       </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -490,6 +505,9 @@
       <c r="B6">
         <v>5</v>
       </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -498,6 +516,9 @@
       <c r="B7">
         <v>6</v>
       </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -506,6 +527,9 @@
       <c r="B8">
         <v>7</v>
       </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -514,13 +538,19 @@
       <c r="B9">
         <v>8</v>
       </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -528,7 +558,10 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -536,7 +569,10 @@
         <v>0</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -544,7 +580,10 @@
         <v>0</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -552,7 +591,10 @@
         <v>0</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -560,7 +602,10 @@
         <v>0</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -568,15 +613,18 @@
         <v>0</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B17">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -584,7 +632,7 @@
         <v>3</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -592,7 +640,7 @@
         <v>3</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -600,7 +648,7 @@
         <v>3</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -608,7 +656,7 @@
         <v>3</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -616,7 +664,7 @@
         <v>3</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -624,7 +672,7 @@
         <v>3</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -632,7 +680,7 @@
         <v>3</v>
       </c>
       <c r="B24">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -640,7 +688,7 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -648,7 +696,7 @@
         <v>3</v>
       </c>
       <c r="B26">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -656,7 +704,7 @@
         <v>3</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -664,7 +712,7 @@
         <v>3</v>
       </c>
       <c r="B28">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -672,7 +720,7 @@
         <v>3</v>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -680,7 +728,7 @@
         <v>3</v>
       </c>
       <c r="B30">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -688,7 +736,7 @@
         <v>3</v>
       </c>
       <c r="B31">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -696,15 +744,15 @@
         <v>3</v>
       </c>
       <c r="B32">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B33">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -712,7 +760,7 @@
         <v>4</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -720,7 +768,7 @@
         <v>4</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -728,7 +776,7 @@
         <v>4</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -736,7 +784,7 @@
         <v>4</v>
       </c>
       <c r="B37">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -744,7 +792,7 @@
         <v>4</v>
       </c>
       <c r="B38">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -752,7 +800,7 @@
         <v>4</v>
       </c>
       <c r="B39">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -760,7 +808,7 @@
         <v>4</v>
       </c>
       <c r="B40">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -768,7 +816,7 @@
         <v>4</v>
       </c>
       <c r="B41">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -776,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B42">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -784,7 +832,7 @@
         <v>4</v>
       </c>
       <c r="B43">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -792,7 +840,7 @@
         <v>4</v>
       </c>
       <c r="B44">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -800,7 +848,7 @@
         <v>4</v>
       </c>
       <c r="B45">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -808,7 +856,7 @@
         <v>4</v>
       </c>
       <c r="B46">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -816,7 +864,7 @@
         <v>4</v>
       </c>
       <c r="B47">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -824,15 +872,15 @@
         <v>4</v>
       </c>
       <c r="B48">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B49">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -840,7 +888,7 @@
         <v>5</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -848,7 +896,7 @@
         <v>5</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -856,7 +904,7 @@
         <v>5</v>
       </c>
       <c r="B52">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -864,7 +912,7 @@
         <v>5</v>
       </c>
       <c r="B53">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -872,7 +920,7 @@
         <v>5</v>
       </c>
       <c r="B54">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -880,7 +928,7 @@
         <v>5</v>
       </c>
       <c r="B55">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -888,7 +936,7 @@
         <v>5</v>
       </c>
       <c r="B56">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -896,7 +944,7 @@
         <v>5</v>
       </c>
       <c r="B57">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -904,7 +952,7 @@
         <v>5</v>
       </c>
       <c r="B58">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -912,7 +960,7 @@
         <v>5</v>
       </c>
       <c r="B59">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -920,7 +968,7 @@
         <v>5</v>
       </c>
       <c r="B60">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -928,7 +976,7 @@
         <v>5</v>
       </c>
       <c r="B61">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -936,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="B62">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -944,7 +992,7 @@
         <v>5</v>
       </c>
       <c r="B63">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -952,14 +1000,6 @@
         <v>5</v>
       </c>
       <c r="B64">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>5</v>
-      </c>
-      <c r="B65">
         <v>16</v>
       </c>
     </row>

--- a/edit-tracking.xlsx
+++ b/edit-tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/rmummah_usgs_gov/Documents/Documents/GitHub/BirdSDM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{48011E1D-CECF-4842-8541-B45FFF3C154A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84388672-7692-42DE-965C-7E2E9745282B}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{48011E1D-CECF-4842-8541-B45FFF3C154A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B52C792-406B-45CE-9621-A70AA1481A5A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{AB80B182-C3D9-437D-A896-052C0DB30904}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="9">
   <si>
     <t>CAWA</t>
   </si>
@@ -423,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090EB2AA-2EDB-41FA-82AD-3B01D26A50CA}">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,260 +619,350 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
       <c r="B20">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
       <c r="B21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
       <c r="B22">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
       <c r="B23">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>3</v>
       </c>
       <c r="B24">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>3</v>
       </c>
       <c r="B25">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3</v>
       </c>
       <c r="B26">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27">
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28">
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29">
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43">
         <v>13</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30">
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31">
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45">
         <v>15</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32">
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33">
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48">
         <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48">
-        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -880,7 +970,7 @@
         <v>5</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -888,7 +978,7 @@
         <v>5</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -896,7 +986,7 @@
         <v>5</v>
       </c>
       <c r="B51">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -904,7 +994,7 @@
         <v>5</v>
       </c>
       <c r="B52">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -912,7 +1002,7 @@
         <v>5</v>
       </c>
       <c r="B53">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -920,7 +1010,7 @@
         <v>5</v>
       </c>
       <c r="B54">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -928,7 +1018,7 @@
         <v>5</v>
       </c>
       <c r="B55">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -936,7 +1026,7 @@
         <v>5</v>
       </c>
       <c r="B56">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -944,7 +1034,7 @@
         <v>5</v>
       </c>
       <c r="B57">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -952,7 +1042,7 @@
         <v>5</v>
       </c>
       <c r="B58">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -960,7 +1050,7 @@
         <v>5</v>
       </c>
       <c r="B59">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -968,7 +1058,7 @@
         <v>5</v>
       </c>
       <c r="B60">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -976,30 +1066,6 @@
         <v>5</v>
       </c>
       <c r="B61">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>5</v>
-      </c>
-      <c r="B62">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B63">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>5</v>
-      </c>
-      <c r="B64">
         <v>16</v>
       </c>
     </row>

--- a/edit-tracking.xlsx
+++ b/edit-tracking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/rmummah_usgs_gov/Documents/Documents/GitHub/BirdSDM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clane\Documents\GitHub\BirdSDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="8_{48011E1D-CECF-4842-8541-B45FFF3C154A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B52C792-406B-45CE-9621-A70AA1481A5A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC7736E-88CA-4B97-B762-11957C2C80C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{AB80B182-C3D9-437D-A896-052C0DB30904}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{AB80B182-C3D9-437D-A896-052C0DB30904}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="11">
   <si>
     <t>CAWA</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>RM</t>
+  </si>
+  <si>
+    <t>CLS</t>
+  </si>
+  <si>
+    <t>problem line 38</t>
   </si>
 </sst>
 </file>
@@ -425,19 +431,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090EB2AA-2EDB-41FA-82AD-3B01D26A50CA}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -451,7 +457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -461,11 +467,14 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
       <c r="F2">
         <v>3110120</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -475,8 +484,11 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -486,8 +498,11 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -497,8 +512,11 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -508,8 +526,11 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -519,8 +540,11 @@
       <c r="C7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -530,8 +554,11 @@
       <c r="C8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -541,8 +568,11 @@
       <c r="C9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -552,8 +582,11 @@
       <c r="C10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -563,8 +596,11 @@
       <c r="C11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -574,8 +610,11 @@
       <c r="C12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -585,8 +624,11 @@
       <c r="C13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -596,8 +638,11 @@
       <c r="C14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -607,8 +652,11 @@
       <c r="C15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -618,8 +666,11 @@
       <c r="C16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -629,8 +680,11 @@
       <c r="C17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -640,8 +694,11 @@
       <c r="C18" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -651,8 +708,11 @@
       <c r="C19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -662,8 +722,11 @@
       <c r="C20" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -673,8 +736,11 @@
       <c r="C21" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -684,8 +750,11 @@
       <c r="C22" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -695,8 +764,11 @@
       <c r="C23" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -706,8 +778,11 @@
       <c r="C24" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -717,8 +792,11 @@
       <c r="C25" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -728,8 +806,11 @@
       <c r="C26" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -739,8 +820,11 @@
       <c r="C27" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -750,8 +834,11 @@
       <c r="C28" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -761,8 +848,11 @@
       <c r="C29" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -772,8 +862,11 @@
       <c r="C30" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -783,8 +876,11 @@
       <c r="C31" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -794,8 +890,11 @@
       <c r="C32" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -805,8 +904,11 @@
       <c r="C33" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -816,8 +918,11 @@
       <c r="C34" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -827,8 +932,11 @@
       <c r="C35" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -838,8 +946,11 @@
       <c r="C36" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -849,8 +960,11 @@
       <c r="C37" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -860,8 +974,11 @@
       <c r="C38" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -871,8 +988,11 @@
       <c r="C39" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -882,8 +1002,11 @@
       <c r="C40" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -894,7 +1017,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -905,7 +1028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -916,7 +1039,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -927,7 +1050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -938,7 +1061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -949,7 +1072,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -957,7 +1080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -965,7 +1088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -973,7 +1096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -981,7 +1104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -989,7 +1112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -997,7 +1120,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -1005,7 +1128,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -1013,7 +1136,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -1021,7 +1144,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -1029,7 +1152,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -1037,7 +1160,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -1045,7 +1168,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -1053,7 +1176,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -1061,7 +1184,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>5</v>
       </c>

--- a/edit-tracking.xlsx
+++ b/edit-tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/rmummah_usgs_gov/Documents/Documents/GitHub/BirdSDM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="8_{48011E1D-CECF-4842-8541-B45FFF3C154A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B52C792-406B-45CE-9621-A70AA1481A5A}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="8_{48011E1D-CECF-4842-8541-B45FFF3C154A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CAD8A3F-27BE-4256-8E90-A836D9172F45}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{AB80B182-C3D9-437D-A896-052C0DB30904}"/>
   </bookViews>
@@ -426,7 +426,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,7 +462,7 @@
         <v>8</v>
       </c>
       <c r="F2">
-        <v>3110120</v>
+        <v>3642470</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -475,6 +475,9 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
+      <c r="F3">
+        <v>3642471</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -486,6 +489,9 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
+      <c r="F4">
+        <v>3642472</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -496,6 +502,9 @@
       </c>
       <c r="C5" t="s">
         <v>8</v>
+      </c>
+      <c r="F5">
+        <v>3642473</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
